--- a/API/Resources/Template/StorageDetailReport.xlsx
+++ b/API/Resources/Template/StorageDetailReport.xlsx
@@ -307,6 +307,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyymmddhhmmssAM/PM"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -385,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,7 +752,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -768,7 +774,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="78.75">
+    <row r="3" spans="1:22" ht="63">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
